--- a/mbs-perturbation/bottleneck/svm/smote/bottleneck-svm-default-results.xlsx
+++ b/mbs-perturbation/bottleneck/svm/smote/bottleneck-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4866310160427808</v>
+        <v>0.6186186186186187</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8465116279069768</v>
+        <v>0.9581395348837209</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6179966044142614</v>
+        <v>0.7518248175182483</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5392644672796106</v>
+        <v>0.8571011357490536</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6259259259259259</v>
+        <v>0.7689530685920578</v>
       </c>
       <c r="C3" t="n">
-        <v>0.786046511627907</v>
+        <v>0.9906976744186047</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6969072164948454</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="E3" t="n">
-        <v>0.780097349918875</v>
+        <v>0.9378474851270956</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5983935742971888</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6930232558139535</v>
+        <v>0.9488372093023256</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6422413793103448</v>
+        <v>0.9737470167064439</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6673661438615468</v>
+        <v>0.999848566792861</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5267857142857143</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8232558139534883</v>
+        <v>0.9534883720930233</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6424682395644283</v>
+        <v>0.9761904761904763</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6581287182260681</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4753246753246753</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8511627906976744</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="D6" t="n">
-        <v>0.61</v>
+        <v>0.988235294117647</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4940400216333153</v>
+        <v>0.9994159004867496</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.542612181175257</v>
+        <v>0.8775143374421353</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.9655813953488372</v>
       </c>
       <c r="D7" t="n">
-        <v>0.641922687956776</v>
+        <v>0.9111702526138801</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6277793401838831</v>
+        <v>0.9588426176311519</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bottleneck/svm/smote/bottleneck-svm-default-results.xlsx
+++ b/mbs-perturbation/bottleneck/svm/smote/bottleneck-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6186186186186187</v>
+        <v>0.6868327402135231</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9581395348837209</v>
+        <v>0.9846938775510204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7518248175182483</v>
+        <v>0.8092243186582809</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8571011357490536</v>
+        <v>0.8255756148613291</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7689530685920578</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9906976744186047</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8658536585365854</v>
+        <v>0.9896907216494846</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9378474851270956</v>
+        <v>0.9998953427524856</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9948717948717949</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9488372093023256</v>
+        <v>0.9948717948717949</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9737470167064439</v>
+        <v>0.9948717948717949</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999848566792861</v>
+        <v>0.9998691784406071</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9534883720930233</v>
+        <v>0.9948717948717949</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9761904761904763</v>
+        <v>0.9974293059125964</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9996598639455783</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9948717948717949</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9767441860465116</v>
+        <v>0.9948717948717949</v>
       </c>
       <c r="D6" t="n">
-        <v>0.988235294117647</v>
+        <v>0.9948717948717949</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9994159004867496</v>
+        <v>0.999973701512163</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8775143374421353</v>
+        <v>0.9353152659914226</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9655813953488372</v>
+        <v>0.9897802197802198</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9111702526138801</v>
+        <v>0.9572175871927904</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9588426176311519</v>
+        <v>0.9649947403024326</v>
       </c>
     </row>
   </sheetData>
